--- a/GESTION DE RIESGOS/2_MATRIZ DE RIESGO EN LA FASE DE DISEÑO.xlsx
+++ b/GESTION DE RIESGOS/2_MATRIZ DE RIESGO EN LA FASE DE DISEÑO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE491DB-A6D6-4328-9848-BEC9048B74B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EB87D0-8BD0-42F4-9CEF-FC0870A8A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{589D6A74-3A8B-4C4C-A254-A3A226E5B25F}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t>MATRIZ DE RIESGOS EN LOS REQUERIMIENTOS</t>
-  </si>
-  <si>
     <t>HECHO POR JUAN JOSE JEREZ PABON</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Capacitar al equipo o contratar consultores especializados.</t>
+  </si>
+  <si>
+    <t>MATRIZ DE RIESGOS FASE DE DISEÑO</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,13 +509,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -528,72 +528,72 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="59.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
